--- a/testing/results_new_dataset/GPT-4/RAGAR_GPT_4.xlsx
+++ b/testing/results_new_dataset/GPT-4/RAGAR_GPT_4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="338">
   <si>
     <t>Statement</t>
   </si>
@@ -1016,6 +1016,18 @@
   </si>
   <si>
     <t>The claim that Margaret Thatcher never told George H.W. Bush not to 'go wobbly' is false. According to the information provided, Margaret Thatcher did indeed advise George H.W. Bush not to 'go wobbly' during a critical time in history. This advice was given during an Aspen Institute conference as Bush was contemplating his response to Saddam Hussein's invasion of Kuwait in August 1990. Therefore, the assertion that this is an 'old wives' story' is incorrect.</t>
+  </si>
+  <si>
+    <t>Perry pushed for a law that lets insurance companies raise homeowners’ rates without having to justify the increase.</t>
+  </si>
+  <si>
+    <t>Back to Basics</t>
+  </si>
+  <si>
+    <t>The information provided does not offer sufficient evidence to confirm or refute the claim that Perry pushed for a law allowing insurance companies to raise homeowners' rates without justification. The responses mention various legislative actions and insurance regulations, but none specifically link Perry to a law that permits insurance companies to increase homeowners' rates without requiring justification. There are mentions of legislation related to insurance companies and homeowners' rates, but the connection to Perry is not explicitly made. Therefore, there is not enough information to fact-check the claim.</t>
+  </si>
+  <si>
+    <t>[('Did Perry advocate for a law that allows insurance companies to increase homeowners’ rates without requiring justification in the United States?', [('Allows OIR to discipline insurance companies for abuse of the appraisal process; review a company’s forms and suspend the ability to use appraisal for up to two years (policyholders and insureds can still use it); and identify companies\n            on OIR’s website that abuse the appraisal process.Senate Bill 154 makes the following changes:\nSenate Bill 1002 makes the following changes related to motor vehicle glass (windshield):\nSenate Bill 7052 includes provisions to increase the accountability and the Office of Insurance Regulation’s (OIR) oversight of insurance companies in Florida.', 'https://www.myfloridacfo.com/division/ica/propertyinsurancechanges'), ('Under the Commissioner’s direction, the Department uses its authority to protect Californians from insurance rates that are excessive, inadequate, or unfairly discriminatory, oversee insurer solvency to pay claims, set standards for agents and broker licensing, perform market conduct reviews of insurance companies, resolve consumer complaints, and investigate and prosecute insurance fraud.The Department of Insurance has several tools to help consumers shop for insurance, including Tips for Finding Residential Insurance and an Insurance Finder tool that can help you locate an agent who can help you in your area.', "https://www.insurance.ca.gov/0400-news/0102-alerts/2023/Consumer-Alert-on-State-Farm's-Decision.cfm"), ("208) This section requires the VA to use surplus earnings from the National Service Life Insurance Fund, the Veterans' Special Life Insurance Fund, and the United States Government Life Insurance Fund to reimburse the General Operating Expenses--Veterans Benefits Administration and Information Technology Systems accounts for the costs to administer the insurance programs.208) This section requires the VA to use surplus earnings from the National Service Life Insurance Fund, the Veterans' Special Life Insurance Fund, and the United States Government Life Insurance Fund to reimburse the General Operating Expenses--Veterans Benefits Administration and Information Technology Systems accounts for the costs to administer the insurance programs.", 'https://www.congress.gov/bill/117th-congress/house-bill/2617'), ('This Bill of Rights is a summary of your rights and does not become a part of your policy. The Texas Department of Insurance (TDI) adopted the Bill of Rights.', 'https://www.tdi.texas.gov/rules/bor-home-english.html'), ('Perry.Perry, R.W., and M.K.', 'https://www.fema.gov/sites/default/files/2020-05/CPG_101_V2_30NOV2010_FINAL_508.pdf')]), ("Can you provide specific details about the legislation that Perry allegedly supported, which permits insurance companies to raise homeowners' rates without justification?", [('v. Perry, 259 U.S. 548 (1922).Such a requirement deprives neither the borrower nor the lender of his property without due process of law.247\nInsurance.—Those engaged in the insurance business248 as well as the business itself have been peculiarly subject to supervision and control.249 Even during the Lochner era the Court recognized that government may fix insurance rates and regulate the compensation of insurance agents,250 and over the years the Court has upheld a wide variety of regulation.', 'https://law.justia.com/constitution/us/amendment-14/04-due-process-of-law.html'), ('Insurance FAIR plans were created as a response to the problem of insurance market unavailability, which occurred when insurance companies stopped providing coverage to high-risk properties and individuals in certain geographic areas.About\nThe NAIC provides expertise, data, and analysis for insurance commissioners to effectively regulate the insurance industry and protect consumers.', 'https://content.naic.org/cipr-topics/fair-access-insurance-requirements-fair-plans'), ('There are, however, a number of exceptions to that general rule, or conditions under which information can be disclosed without consent.Subsection (b)(11) permits a court of competent jurisdiction to order disclosure of Privacy Act protected information that would otherwise be prohibited from disclosure without prior written consent of the individual to whom the record pertains.', 'https://www.justice.gov/opcl/overview-privacy-act-1974-2020-edition/disclosures-third-parties'), ('Are you aware if you have windstorm/hurricane coverage on your homeowners’ policy, you may also have a separate\xa0hurricane deductible?However, if a policyholder has windstorm damage resulting from the first hurricane of the policy term, and then moves the policy to a different insurance company that is not a part of the original insurance company’s group, the hurricane deductible applies in full to the second claim without any credit given for the first hurricane deductible that occurred the same year.', 'https://www.myfloridacfo.com/division/consumers/consumerprotections/floridashurricanedeductible'), ('There’s nothing you can do to prevent your company from pulling out of the state, but there are steps you can take to make your home as insurable as possible:\nAdditionally, there are ways you can lessen the impact of home insurance fraud and legal system abuse, which can help keep companies from having to liquidate.McFaddin recommends that you “work closely with your insurer or insurance agent to see what options may be available to you.” ICA Carter’s advice was similar, advising that “consumers should contact their insurance agency immediately to determine what their options are for homeowners insurance.”\nIf you’re struggling to find home insurance coverage in Florida, there are still a few companies that may be able to help.', 'https://www.bankrate.com/insurance/homeowners-insurance/florida-homeowners-insurance-crisis/')]), ("What specific actions did Perry take to support this legislation allowing insurance companies to increase homeowners' rates without justification?", [("Shortly after Hurricane Andrew, the insurance commissioner reported that\ninsurance companies could have asked for larger increases in homeowners'\ninsurance rates in every year from 1985 to 1992, and consequently that\napproved rates were less than what the DOI had calculated as permissible\n(Florida Department of Insurance, 1992).Rates were to be set at above-market\nrates to encourage placement in the voluntary market.", 'https://hazards.colorado.edu/research/working-papers/96'), ('The bill includes specific steps the condominium association and inspector must take regarding the inspections.Among the legislation, the Legislature passed Senate Bill 2A, which makes sweeping changes to the property insurance\n    claims process, reinsurance, regulation of insurance companies and more.', 'https://www.myfloridacfo.com/division/ica/propertyinsurancechanges'), ('“We have specific underwriting standards related to locations exposed to the hazard of wildfire and do not offer accommodations related to our standards, nor our pricing, for any wildfire mitigation actions undertaken for a specific location,” she said in an email.“We have specific underwriting standards related to locations exposed to the hazard of wildfire and do not offer accommodations related to our standards, nor our pricing, for any wildfire mitigation actions undertaken for a specific location,” she said in an email.', 'https://oregoncapitalchronicle.com/2024/02/26/oregon-homeowners-face-soaring-premiums-few-property-insurance-options-over-wildfires/'), ('But what is Slide Insurance?For Florida homeowners, this is resulting in fewer home insurance companies and increased premiums.', 'https://www.bankrate.com/insurance/homeowners-insurance/florida-homeowners-insurance-crisis/')]), ("What were the specific provisions in the legislation that Perry supported, which could potentially allow insurance companies to raise homeowners' rates without providing a justification?", [("Shortly after Hurricane Andrew, the insurance commissioner reported that\ninsurance companies could have asked for larger increases in homeowners'\ninsurance rates in every year from 1985 to 1992, and consequently that\napproved rates were less than what the DOI had calculated as permissible\n(Florida Department of Insurance, 1992).The rule was intended to keep insurers in the\nstate and to limit the number of homeowners who would be without and could\nnot find insurance in the voluntary market.", 'https://hazards.colorado.edu/research/working-papers/96'), ("Geller said the bill would allow insurance companies to purchase less reinsurance, a saving which he said could be reflected on homeowners' bills.Geller said the bill would allow insurance companies to reinsure for only a 1-in-50 year event – or $63 billion in damages.", 'https://www.wusf.org/politics-issues/2024-03-16/federal-legislation-could-cut-homeowners-insurance-premiums-by-a-quarter-a-new-report-says'), ('Central to the problem was that insurance companies were including their reinsurance costs in customer premiums.The key reform the state adopted, which saved Floridians billions of dollars at the time, was limiting the amount of reinsurance that could be foisted upon homeowners.', 'https://consumerfed.org/press_release/california-homeowners-insurance-legislation-will-raise-premiums-by-40-across-the-state/'), ("The rule would allow insurance companies to use forward-looking catastrophe modeling, or 'cat modeling,' when justifying a proposed rate hike.", 'https://www.abc10.com/article/money/proposed-change-to-home-owner-insurance-costs/103-94d7ff7f-b133-440f-815d-682f062a6cd1'), ('109) This section extends the availability of specified funds that were provided by the Continuing Appropriations Act, 2023 for the National Infrastructure Investments program (RAISE grants).109) This section extends the availability of specified funds that were provided by the Continuing Appropriations Act, 2023 for the National Infrastructure Investments program (RAISE grants).', 'https://www.congress.gov/bill/117th-congress/house-bill/2617')]), ('What were the potential impacts on homeowners, if any, as a result of the legislation Perry supported, particularly in terms of insurance rate increases?', [('Insurance rates nationwide\xa0have been on the rise due to the impacts of the climate crisis.As the climate crisis has rapidly intensified, the insurance system hasn’t been seriously reformed in 30 years – this is part of our strategy to strengthen our marketplace and get folks the coverage they need.”\xa0Governor Gavin Newsom\nLast year, Governor Newsom\xa0called for swift regulatory action\xa0to strengthen and stabilize California’s marketplace with a focus on creating a better rate approval process, building a stronger FAIR Plan, and accelerating the implementation of regulations.', 'https://www.gov.ca.gov/2024/06/12/governor-newsom-supports-insurance-reform-proposal/'), ("Shortly after Hurricane Andrew, the insurance commissioner reported that\ninsurance companies could have asked for larger increases in homeowners'\ninsurance rates in every year from 1985 to 1992, and consequently that\napproved rates were less than what the DOI had calculated as permissible\n(Florida Department of Insurance, 1992).In the late 1960's, private insurance companies were reluctant to\nvoluntarily insure homeowners who resided in the southern most counties of\nFlorida because of potential losses from hurricanes.", 'https://hazards.colorado.edu/research/working-papers/96'), ('We are also available on social media:If you are an existing customer and need assistance, please call +1 (714) 671-6508 or email us at .', 'https://www.mercuryinsurance.com/resources/home/whats-driving-homeowners-insurance-rate-increases.html'), ('“Ultimately, we want to reduce the number of homeowners and businesses on the FAIR Plan by strengthening the market overall.The data must be shared with the Insurance Commissioner, the Governor, and State Legislature as well as publicly posted on its Internet website.', 'https://www.insurance.ca.gov/0400-news/0100-press-releases/2024/release031-2024.cfm'), ('Citizens policyholders insuring secondary homes are excluded from the rate cap, allowing rate increases up to 50 percent.Demotech downgrades and what they might mean for the Florida property insurance market\n\n\n\n\n    Best homeowners insurance in Florida\n\n\n\nBankrate.com is an independent, advertising-supported publisher and comparison service.', 'https://www.bankrate.com/insurance/homeowners-insurance/florida-homeowners-insurance-crisis/')]), ("What were the public reactions or oppositions, if any, to the legislation that Perry supported, which could potentially allow insurance companies to increase homeowners' rates without providing a justification?", [("Shortly after Hurricane Andrew, the insurance commissioner reported that\ninsurance companies could have asked for larger increases in homeowners'\ninsurance rates in every year from 1985 to 1992, and consequently that\napproved rates were less than what the DOI had calculated as permissible\n(Florida Department of Insurance, 1992).The rule was intended to keep insurers in the\nstate and to limit the number of homeowners who would be without and could\nnot find insurance in the voluntary market.", 'https://hazards.colorado.edu/research/working-papers/96'), ('The right of consumers to monitor insurance companies’ compliance with Proposition 103 is part of the 1988 insurance reform initiative that requires insurance companies to open their books and prove their rates and premiums are reasonable before the Insurance Commissioner can approve them.Prop 103 created the public intervenor process to give consumers a voice in rate oversight, both to assist the Department of Insurance and to make sure the Commissioner enforces the law.', 'https://consumerwatchdog.org/insurance/governors-proposal-targets-prop-103s-public-rate-review-that-has-saved-homeowners-drivers-doctors-6-billion-on-insurance/'), ('The California Department of Insurance is allowing the company to raise rates an average of 34%.The Department of Insurance is implementing new regulations that will allow some rate increases in exchange for companies writing new policies across the state.', 'https://abc7.com/post/new-rule-will-allow-california-home-insurance-rates-increase-officials-say-stabilize-market/15268826/'), ('That’s partly due to an insurance scam in the state that has tied up insurers in frivolous, expensive litigation, which the state government enacted legislation to address.The families in those properties will suffer the most from the fallout, but homeowners across the state could pay for the disaster in the form of higher insurance premiums.', 'https://www.washingtonpost.com/opinions/2023/09/06/climate-change-hurricane-florida-home-insurance-premiums/'), ('McFaddin recommends that you “work closely with your insurer or insurance agent to see what options may be available to you.” ICA Carter’s advice was similar, advising that “consumers should contact their insurance agency immediately to determine what their options are for homeowners insurance.”\nIf you’re struggling to find home insurance coverage in Florida, there are still a few companies that may be able to help.The company can then proactively reach out to homeowners to determine if a claim needs to be filed, thereby cutting out potentially predatory contractors.', 'https://www.bankrate.com/insurance/homeowners-insurance/florida-homeowners-insurance-crisis/')])]</t>
   </si>
 </sst>
 </file>
@@ -3401,12 +3413,24 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
+      <c r="A101" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>337</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
